--- a/src/form_templates/template_63.xlsx
+++ b/src/form_templates/template_63.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\excel test\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\src\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03C1EB57-DC4F-49F3-B6B6-1DD427DC35EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E03704-7E11-4900-8F54-BA34E8C3E81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RIS" sheetId="2" r:id="rId1"/>
@@ -74,12 +74,6 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Division : _______________________________________________</t>
-  </si>
-  <si>
-    <t>Office : ________________________________________________</t>
-  </si>
-  <si>
     <t xml:space="preserve">Requested by:   </t>
   </si>
   <si>
@@ -90,12 +84,6 @@
   </si>
   <si>
     <t>Received by:</t>
-  </si>
-  <si>
-    <t>Responsibility Center Code : ______________________</t>
-  </si>
-  <si>
-    <t>RIS No. : _____________________________________</t>
   </si>
   <si>
     <t xml:space="preserve">Appendix 63
@@ -121,6 +109,18 @@
       </rPr>
       <t>SAN ROQUE NATIONAL HIGH SCHOOL</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Division : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsibility Center Code : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIS No. : </t>
   </si>
 </sst>
 </file>
@@ -762,24 +762,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,6 +797,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1206,20 +1206,20 @@
     <row r="1" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H2" s="53" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1241,7 +1241,7 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1256,47 +1256,47 @@
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="19"/>
       <c r="F8" s="56" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="57" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="65" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="65" t="s">
+      <c r="F10" s="61"/>
+      <c r="G10" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="67"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
@@ -1524,52 +1524,52 @@
     </row>
     <row r="32" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="73"/>
+        <v>22</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="75"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="69"/>
     </row>
     <row r="34" spans="1:8" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="52"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="71"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="44"/>
       <c r="B35" s="45"/>
       <c r="C35" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="63"/>
+      <c r="F35" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="G35" s="63"/>
+      <c r="H35" s="47" t="s">
         <v>19</v>
-      </c>
-      <c r="E35" s="69"/>
-      <c r="F35" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="69"/>
-      <c r="H35" s="47" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1578,10 +1578,10 @@
       </c>
       <c r="B36" s="41"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="48"/>
     </row>
     <row r="37" spans="1:8" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,10 +1590,10 @@
       </c>
       <c r="B37" s="43"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="49"/>
     </row>
     <row r="38" spans="1:8" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,10 +1602,10 @@
       </c>
       <c r="B38" s="43"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="71"/>
       <c r="H38" s="49"/>
     </row>
     <row r="39" spans="1:8" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1614,10 +1614,10 @@
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1627,6 +1627,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:F10"/>
@@ -1636,14 +1644,6 @@
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/form_templates/template_63.xlsx
+++ b/src/form_templates/template_63.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance De Castro\Documents\GitHub\sIMS\src\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E03704-7E11-4900-8F54-BA34E8C3E81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59DF805-1A62-4121-B4D6-36033EB76FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -127,6 +127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -201,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -276,15 +279,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -619,20 +613,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -643,9 +624,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -655,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -665,17 +644,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -684,137 +653,178 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1186,8 +1196,8 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1205,21 +1215,21 @@
   <sheetData>
     <row r="1" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="32" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -1232,15 +1242,15 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1255,386 +1265,377 @@
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="56" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="57" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="25"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="59" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="59" t="s">
+      <c r="F10" s="54"/>
+      <c r="G10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="61"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="55" t="s">
+      <c r="H11" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="31"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="32"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="73"/>
     </row>
     <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="32"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="32"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="73"/>
     </row>
     <row r="16" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="32"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="32"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="73"/>
     </row>
     <row r="18" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="32"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="73"/>
     </row>
     <row r="19" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="32"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="32"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="32"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="32"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="32"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="73"/>
     </row>
     <row r="24" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="32"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="73"/>
     </row>
     <row r="25" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="32"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="32"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="32"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="73"/>
     </row>
     <row r="28" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="32"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="73"/>
     </row>
     <row r="29" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="32"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="73"/>
     </row>
     <row r="30" spans="1:8" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="1:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="79"/>
+    </row>
+    <row r="31" spans="1:8" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="69"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="1:8" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="62" t="s">
+      <c r="E35" s="56"/>
+      <c r="F35" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="63"/>
-      <c r="H35" s="47" t="s">
+      <c r="G35" s="56"/>
+      <c r="H35" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="48"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="49"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="49"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" spans="1:8" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="50"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="42"/>
     </row>
     <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="E10:F10"/>
@@ -1644,6 +1645,14 @@
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
